--- a/senate_division.xlsx
+++ b/senate_division.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floor Kouwenberg\Documents\VU\Data Wrangling\Data-Wrangling-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC008FDB-FD30-4369-A6EC-12606D040BFE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E774E3-EFC6-4B78-9B3E-FBC92BA91779}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13836" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{3E1B837C-22F2-4A59-A961-E3830EB237F1}"/>
+    <workbookView xWindow="4092" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{3E1B837C-22F2-4A59-A961-E3830EB237F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>1997-1999</t>
-  </si>
-  <si>
     <t>1999–2001</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>HOR: Vacancies</t>
+  </si>
+  <si>
+    <t>1997–1999</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,40 +467,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -537,7 +537,7 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -567,7 +567,7 @@
         <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -593,11 +593,11 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" ref="A5:A14" si="0">A4+1</f>
+        <f t="shared" ref="A5:A13" si="0">A4+1</f>
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -630,7 +630,7 @@
         <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -663,7 +663,7 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -693,7 +693,7 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -726,7 +726,7 @@
         <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -756,7 +756,7 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -786,7 +786,7 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -816,7 +816,7 @@
         <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -846,7 +846,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>100</v>
